--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickrehill/PycharmProjects/pbrehill.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F7A53F24-3F53-3143-81FA-4228E3F28691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{99FFB41D-02A7-DB4E-9C0E-9CC047714939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{63DBD6D1-2BF1-3645-9DF0-86FA3688087E}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>https://apo.org.au/node/318500</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
     <t>The wellbeing of Australia’s children</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>https://doi.org/10.1007/s10614-024-10722-1</t>
   </si>
   <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>Guidance note: Equality Insights and individual-level, gender-sensitive measurement of multidimensional poverty and inequality</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>https://arxiv.org/pdf/2309.00805</t>
   </si>
   <si>
-    <t>preprint</t>
-  </si>
-  <si>
     <t>Transparency challenges in policy evaluation with causal machine learning: improving usability and accountability</t>
   </si>
   <si>
@@ -197,6 +188,15 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>manuscripts</t>
+  </si>
+  <si>
+    <t>working_papers</t>
+  </si>
+  <si>
+    <t>reports</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,16 +1114,16 @@
         <v>44197</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,16 +1131,16 @@
         <v>44562</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1148,16 +1148,16 @@
         <v>44562</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,16 +1165,16 @@
         <v>44562</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1182,16 +1182,16 @@
         <v>43831</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1199,22 +1199,22 @@
         <v>45292</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1222,16 +1222,16 @@
         <v>44197</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1239,16 +1239,16 @@
         <v>44562</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1256,19 +1256,19 @@
         <v>44927</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1276,22 +1276,22 @@
         <v>45292</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,19 +1299,19 @@
         <v>45292</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1319,19 +1319,19 @@
         <v>45292</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1339,19 +1339,19 @@
         <v>45292</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1359,16 +1359,16 @@
         <v>44927</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
